--- a/data/covid_cases.xlsx
+++ b/data/covid_cases.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mlwtrust-my.sharepoint.com/personal/umseka_mlw_mw/Documents/Documents/R Project/CovidModelling/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/DT643/Documents/Rproject/CovidModellingReprod/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CCBC814F-3E65-4038-BFD7-4C6A45F66909}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{237930A2-77DF-2E41-915C-6E0A40199A28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,10 +41,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>Cases</t>
+    <t>datec</t>
   </si>
   <si>
-    <t>Date</t>
+    <t>cases</t>
   </si>
 </sst>
 </file>
@@ -140,14 +140,10 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -185,7 +181,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -291,7 +287,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -433,7 +429,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -444,23 +440,23 @@
   <dimension ref="A1:B325"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>43923</v>
       </c>
@@ -468,7 +464,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>43925</v>
       </c>
@@ -476,7 +472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>43927</v>
       </c>
@@ -484,7 +480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>43928</v>
       </c>
@@ -492,7 +488,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>43931</v>
       </c>
@@ -500,7 +496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>43932</v>
       </c>
@@ -508,7 +504,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>43933</v>
       </c>
@@ -516,7 +512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>43934</v>
       </c>
@@ -524,7 +520,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>43938</v>
       </c>
@@ -532,7 +528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>43939</v>
       </c>
@@ -540,7 +536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>43942</v>
       </c>
@@ -548,7 +544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>43943</v>
       </c>
@@ -556,7 +552,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>43944</v>
       </c>
@@ -564,7 +560,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>43945</v>
       </c>
@@ -572,7 +568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>43947</v>
       </c>
@@ -580,7 +576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>43948</v>
       </c>
@@ -588,7 +584,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>43949</v>
       </c>
@@ -596,7 +592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>43950</v>
       </c>
@@ -604,7 +600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>43951</v>
       </c>
@@ -612,7 +608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>43952</v>
       </c>
@@ -620,7 +616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>43953</v>
       </c>
@@ -628,7 +624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>43954</v>
       </c>
@@ -636,7 +632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>43955</v>
       </c>
@@ -644,7 +640,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>43957</v>
       </c>
@@ -652,7 +648,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>43960</v>
       </c>
@@ -660,7 +656,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>43962</v>
       </c>
@@ -668,7 +664,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>43963</v>
       </c>
@@ -676,7 +672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>43964</v>
       </c>
@@ -684,7 +680,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>43967</v>
       </c>
@@ -692,7 +688,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>43968</v>
       </c>
@@ -700,7 +696,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>43970</v>
       </c>
@@ -708,7 +704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>43971</v>
       </c>
@@ -716,7 +712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>43973</v>
       </c>
@@ -724,7 +720,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>43974</v>
       </c>
@@ -732,7 +728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>43976</v>
       </c>
@@ -740,7 +736,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>43979</v>
       </c>
@@ -748,7 +744,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>43980</v>
       </c>
@@ -756,7 +752,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>43981</v>
       </c>
@@ -764,7 +760,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>43982</v>
       </c>
@@ -772,7 +768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>43983</v>
       </c>
@@ -780,7 +776,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>43984</v>
       </c>
@@ -788,7 +784,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>43985</v>
       </c>
@@ -796,7 +792,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>43986</v>
       </c>
@@ -804,7 +800,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>43987</v>
       </c>
@@ -812,7 +808,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>43988</v>
       </c>
@@ -820,7 +816,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>43989</v>
       </c>
@@ -828,7 +824,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>43991</v>
       </c>
@@ -836,7 +832,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>43992</v>
       </c>
@@ -844,7 +840,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>43994</v>
       </c>
@@ -852,7 +848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>43995</v>
       </c>
@@ -860,7 +856,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>43996</v>
       </c>
@@ -868,7 +864,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>43997</v>
       </c>
@@ -876,7 +872,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>43998</v>
       </c>
@@ -884,7 +880,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>43999</v>
       </c>
@@ -892,7 +888,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>44000</v>
       </c>
@@ -900,7 +896,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>44001</v>
       </c>
@@ -908,7 +904,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>44002</v>
       </c>
@@ -916,7 +912,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>44003</v>
       </c>
@@ -924,7 +920,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>44004</v>
       </c>
@@ -932,7 +928,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>44005</v>
       </c>
@@ -940,7 +936,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <v>44006</v>
       </c>
@@ -948,7 +944,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <v>44007</v>
       </c>
@@ -956,7 +952,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <v>44008</v>
       </c>
@@ -964,7 +960,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
         <v>44009</v>
       </c>
@@ -972,7 +968,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
         <v>44010</v>
       </c>
@@ -980,7 +976,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
         <v>44011</v>
       </c>
@@ -988,7 +984,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
         <v>44012</v>
       </c>
@@ -996,7 +992,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
         <v>44013</v>
       </c>
@@ -1004,7 +1000,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
         <v>44014</v>
       </c>
@@ -1012,7 +1008,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
         <v>44015</v>
       </c>
@@ -1020,7 +1016,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
         <v>44016</v>
       </c>
@@ -1028,7 +1024,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
         <v>44017</v>
       </c>
@@ -1036,7 +1032,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
         <v>44018</v>
       </c>
@@ -1044,7 +1040,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
         <v>44019</v>
       </c>
@@ -1052,7 +1048,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
         <v>44020</v>
       </c>
@@ -1060,7 +1056,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
         <v>44021</v>
       </c>
@@ -1068,7 +1064,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
         <v>44022</v>
       </c>
@@ -1076,7 +1072,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
         <v>44023</v>
       </c>
@@ -1084,7 +1080,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
         <v>44024</v>
       </c>
@@ -1092,7 +1088,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
         <v>44025</v>
       </c>
@@ -1100,7 +1096,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
         <v>44026</v>
       </c>
@@ -1108,7 +1104,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
         <v>44027</v>
       </c>
@@ -1116,7 +1112,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
         <v>44028</v>
       </c>
@@ -1124,7 +1120,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
         <v>44029</v>
       </c>
@@ -1132,7 +1128,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
         <v>44030</v>
       </c>
@@ -1140,7 +1136,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="2">
         <v>44031</v>
       </c>
@@ -1148,7 +1144,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="3">
         <v>44032</v>
       </c>
@@ -1156,7 +1152,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="3">
         <v>44033</v>
       </c>
@@ -1164,7 +1160,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="3">
         <v>44034</v>
       </c>
@@ -1172,7 +1168,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="3">
         <v>44035</v>
       </c>
@@ -1180,7 +1176,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="3">
         <v>44036</v>
       </c>
@@ -1188,7 +1184,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="3">
         <v>44037</v>
       </c>
@@ -1196,7 +1192,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="3">
         <v>44038</v>
       </c>
@@ -1204,7 +1200,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="3">
         <v>44039</v>
       </c>
@@ -1212,7 +1208,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="3">
         <v>44040</v>
       </c>
@@ -1220,7 +1216,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="3">
         <v>44041</v>
       </c>
@@ -1228,7 +1224,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="3">
         <v>44042</v>
       </c>
@@ -1236,7 +1232,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="3">
         <v>44043</v>
       </c>
@@ -1244,7 +1240,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="3">
         <v>44044</v>
       </c>
@@ -1252,7 +1248,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="3">
         <v>44045</v>
       </c>
@@ -1260,7 +1256,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="3">
         <v>44046</v>
       </c>
@@ -1268,7 +1264,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="3">
         <v>44047</v>
       </c>
@@ -1276,7 +1272,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="3">
         <v>44048</v>
       </c>
@@ -1284,7 +1280,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="3">
         <v>44049</v>
       </c>
@@ -1292,7 +1288,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="3">
         <v>44050</v>
       </c>
@@ -1300,7 +1296,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="3">
         <v>44051</v>
       </c>
@@ -1308,7 +1304,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" s="3">
         <v>44052</v>
       </c>
@@ -1316,7 +1312,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="3">
         <v>44053</v>
       </c>
@@ -1324,7 +1320,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" s="3">
         <v>44054</v>
       </c>
@@ -1332,7 +1328,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" s="3">
         <v>44055</v>
       </c>
@@ -1340,7 +1336,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" s="3">
         <v>44056</v>
       </c>
@@ -1348,7 +1344,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" s="3">
         <v>44057</v>
       </c>
@@ -1356,7 +1352,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" s="3">
         <v>44058</v>
       </c>
@@ -1364,7 +1360,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" s="3">
         <v>44059</v>
       </c>
@@ -1372,7 +1368,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" s="3">
         <v>44061</v>
       </c>
@@ -1380,7 +1376,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" s="3">
         <v>44062</v>
       </c>
@@ -1388,7 +1384,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" s="3">
         <v>44063</v>
       </c>
@@ -1396,7 +1392,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" s="3">
         <v>44064</v>
       </c>
@@ -1404,7 +1400,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" s="3">
         <v>44065</v>
       </c>
@@ -1412,7 +1408,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" s="3">
         <v>44066</v>
       </c>
@@ -1420,7 +1416,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" s="3">
         <v>44067</v>
       </c>
@@ -1428,7 +1424,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" s="3">
         <v>44068</v>
       </c>
@@ -1436,7 +1432,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" s="3">
         <v>44069</v>
       </c>
@@ -1444,7 +1440,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" s="3">
         <v>44070</v>
       </c>
@@ -1452,7 +1448,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" s="3">
         <v>44071</v>
       </c>
@@ -1460,7 +1456,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" s="3">
         <v>44072</v>
       </c>
@@ -1468,7 +1464,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" s="3">
         <v>44073</v>
       </c>
@@ -1476,7 +1472,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" s="3">
         <v>44074</v>
       </c>
@@ -1484,7 +1480,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" s="3">
         <v>44075</v>
       </c>
@@ -1492,7 +1488,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" s="3">
         <v>44076</v>
       </c>
@@ -1500,7 +1496,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" s="3">
         <v>44077</v>
       </c>
@@ -1508,7 +1504,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" s="3">
         <v>44078</v>
       </c>
@@ -1516,7 +1512,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" s="3">
         <v>44079</v>
       </c>
@@ -1524,7 +1520,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" s="3">
         <v>44080</v>
       </c>
@@ -1532,7 +1528,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" s="3">
         <v>44081</v>
       </c>
@@ -1540,7 +1536,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" s="3">
         <v>44082</v>
       </c>
@@ -1548,7 +1544,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" s="3">
         <v>44083</v>
       </c>
@@ -1556,7 +1552,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" s="3">
         <v>44084</v>
       </c>
@@ -1564,7 +1560,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" s="3">
         <v>44085</v>
       </c>
@@ -1572,7 +1568,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" s="3">
         <v>44086</v>
       </c>
@@ -1580,7 +1576,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" s="3">
         <v>44087</v>
       </c>
@@ -1588,7 +1584,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" s="3">
         <v>44088</v>
       </c>
@@ -1596,7 +1592,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" s="3">
         <v>44089</v>
       </c>
@@ -1604,7 +1600,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" s="3">
         <v>44090</v>
       </c>
@@ -1612,7 +1608,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" s="3">
         <v>44091</v>
       </c>
@@ -1620,7 +1616,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" s="3">
         <v>44092</v>
       </c>
@@ -1628,7 +1624,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" s="3">
         <v>44093</v>
       </c>
@@ -1636,7 +1632,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" s="3">
         <v>44094</v>
       </c>
@@ -1644,7 +1640,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" s="3">
         <v>44095</v>
       </c>
@@ -1652,7 +1648,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" s="3">
         <v>44096</v>
       </c>
@@ -1660,7 +1656,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" s="3">
         <v>44097</v>
       </c>
@@ -1668,7 +1664,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" s="3">
         <v>44098</v>
       </c>
@@ -1676,7 +1672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" s="3">
         <v>44099</v>
       </c>
@@ -1684,7 +1680,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" s="3">
         <v>44100</v>
       </c>
@@ -1692,7 +1688,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" s="3">
         <v>44101</v>
       </c>
@@ -1700,7 +1696,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" s="3">
         <v>44102</v>
       </c>
@@ -1708,7 +1704,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" s="3">
         <v>44103</v>
       </c>
@@ -1716,7 +1712,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" s="3">
         <v>44104</v>
       </c>
@@ -1724,7 +1720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" s="3">
         <v>44105</v>
       </c>
@@ -1732,7 +1728,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" s="3">
         <v>44106</v>
       </c>
@@ -1740,7 +1736,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" s="3">
         <v>44108</v>
       </c>
@@ -1748,7 +1744,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" s="3">
         <v>44109</v>
       </c>
@@ -1756,7 +1752,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" s="3">
         <v>44110</v>
       </c>
@@ -1764,7 +1760,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" s="3">
         <v>44111</v>
       </c>
@@ -1772,7 +1768,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" s="3">
         <v>44112</v>
       </c>
@@ -1780,7 +1776,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" s="3">
         <v>44113</v>
       </c>
@@ -1788,7 +1784,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" s="3">
         <v>44114</v>
       </c>
@@ -1796,7 +1792,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" s="3">
         <v>44115</v>
       </c>
@@ -1804,7 +1800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" s="3">
         <v>44116</v>
       </c>
@@ -1812,7 +1808,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" s="3">
         <v>44117</v>
       </c>
@@ -1820,7 +1816,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" s="3">
         <v>44118</v>
       </c>
@@ -1828,7 +1824,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" s="3">
         <v>44119</v>
       </c>
@@ -1836,7 +1832,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" s="3">
         <v>44120</v>
       </c>
@@ -1844,7 +1840,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" s="3">
         <v>44121</v>
       </c>
@@ -1852,7 +1848,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" s="3">
         <v>44122</v>
       </c>
@@ -1860,7 +1856,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" s="3">
         <v>44123</v>
       </c>
@@ -1868,7 +1864,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" s="3">
         <v>44124</v>
       </c>
@@ -1876,7 +1872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" s="3">
         <v>44125</v>
       </c>
@@ -1884,7 +1880,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" s="3">
         <v>44126</v>
       </c>
@@ -1892,7 +1888,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" s="3">
         <v>44127</v>
       </c>
@@ -1900,7 +1896,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" s="3">
         <v>44128</v>
       </c>
@@ -1908,7 +1904,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" s="3">
         <v>44129</v>
       </c>
@@ -1916,7 +1912,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" s="3">
         <v>44130</v>
       </c>
@@ -1924,7 +1920,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" s="3">
         <v>44131</v>
       </c>
@@ -1932,7 +1928,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" s="3">
         <v>44132</v>
       </c>
@@ -1940,7 +1936,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" s="3">
         <v>44133</v>
       </c>
@@ -1948,7 +1944,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" s="3">
         <v>44134</v>
       </c>
@@ -1956,7 +1952,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" s="3">
         <v>44135</v>
       </c>
@@ -1964,7 +1960,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" s="3">
         <v>44136</v>
       </c>
@@ -1972,7 +1968,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" s="3">
         <v>44137</v>
       </c>
@@ -1980,7 +1976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" s="3">
         <v>44138</v>
       </c>
@@ -1988,7 +1984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" s="3">
         <v>44139</v>
       </c>
@@ -1996,7 +1992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" s="3">
         <v>44140</v>
       </c>
@@ -2004,7 +2000,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" s="3">
         <v>44141</v>
       </c>
@@ -2012,7 +2008,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" s="3">
         <v>44142</v>
       </c>
@@ -2020,7 +2016,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" s="3">
         <v>44143</v>
       </c>
@@ -2028,7 +2024,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" s="3">
         <v>44144</v>
       </c>
@@ -2036,7 +2032,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" s="3">
         <v>44145</v>
       </c>
@@ -2044,7 +2040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" s="3">
         <v>44146</v>
       </c>
@@ -2052,7 +2048,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" s="3">
         <v>44147</v>
       </c>
@@ -2060,7 +2056,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" s="3">
         <v>44148</v>
       </c>
@@ -2068,7 +2064,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" s="3">
         <v>44149</v>
       </c>
@@ -2076,7 +2072,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" s="3">
         <v>44150</v>
       </c>
@@ -2084,7 +2080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205" s="3">
         <v>44151</v>
       </c>
@@ -2092,7 +2088,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206" s="3">
         <v>44152</v>
       </c>
@@ -2100,7 +2096,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207" s="3">
         <v>44153</v>
       </c>
@@ -2108,7 +2104,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208" s="3">
         <v>44154</v>
       </c>
@@ -2116,7 +2112,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209" s="3">
         <v>44155</v>
       </c>
@@ -2124,7 +2120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210" s="3">
         <v>44156</v>
       </c>
@@ -2132,7 +2128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211" s="3">
         <v>44157</v>
       </c>
@@ -2140,7 +2136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212" s="3">
         <v>44158</v>
       </c>
@@ -2148,7 +2144,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213" s="3">
         <v>44159</v>
       </c>
@@ -2156,7 +2152,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214" s="3">
         <v>44160</v>
       </c>
@@ -2164,7 +2160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215" s="3">
         <v>44161</v>
       </c>
@@ -2172,7 +2168,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216" s="3">
         <v>44162</v>
       </c>
@@ -2180,7 +2176,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217" s="3">
         <v>44163</v>
       </c>
@@ -2188,7 +2184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218" s="3">
         <v>44164</v>
       </c>
@@ -2196,7 +2192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219" s="3">
         <v>44165</v>
       </c>
@@ -2204,7 +2200,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220" s="3">
         <v>44166</v>
       </c>
@@ -2212,7 +2208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221" s="3">
         <v>44167</v>
       </c>
@@ -2220,7 +2216,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222" s="3">
         <v>44168</v>
       </c>
@@ -2228,7 +2224,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223" s="3">
         <v>44169</v>
       </c>
@@ -2236,7 +2232,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224" s="3">
         <v>44170</v>
       </c>
@@ -2244,7 +2240,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225" s="3">
         <v>44171</v>
       </c>
@@ -2252,7 +2248,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226" s="3">
         <v>44172</v>
       </c>
@@ -2260,7 +2256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227" s="3">
         <v>44173</v>
       </c>
@@ -2268,7 +2264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228" s="3">
         <v>44174</v>
       </c>
@@ -2276,7 +2272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229" s="3">
         <v>44175</v>
       </c>
@@ -2284,7 +2280,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230" s="3">
         <v>44176</v>
       </c>
@@ -2292,7 +2288,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231" s="3">
         <v>44177</v>
       </c>
@@ -2300,7 +2296,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232" s="3">
         <v>44178</v>
       </c>
@@ -2308,7 +2304,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233" s="3">
         <v>44179</v>
       </c>
@@ -2316,7 +2312,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234" s="3">
         <v>44180</v>
       </c>
@@ -2324,7 +2320,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235" s="3">
         <v>44181</v>
       </c>
@@ -2332,7 +2328,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236" s="3">
         <v>44182</v>
       </c>
@@ -2340,7 +2336,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237" s="3">
         <v>44183</v>
       </c>
@@ -2348,7 +2344,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238" s="3">
         <v>44184</v>
       </c>
@@ -2356,7 +2352,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239" s="3">
         <v>44185</v>
       </c>
@@ -2364,7 +2360,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240" s="3">
         <v>44186</v>
       </c>
@@ -2372,7 +2368,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241" s="3">
         <v>44187</v>
       </c>
@@ -2380,7 +2376,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242" s="3">
         <v>44188</v>
       </c>
@@ -2388,7 +2384,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243" s="3">
         <v>44189</v>
       </c>
@@ -2396,7 +2392,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244" s="2">
         <v>44190</v>
       </c>
@@ -2404,7 +2400,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245" s="2">
         <v>44191</v>
       </c>
@@ -2412,7 +2408,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246" s="2">
         <v>44192</v>
       </c>
@@ -2420,7 +2416,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247" s="2">
         <v>44193</v>
       </c>
@@ -2428,7 +2424,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248" s="2">
         <v>44194</v>
       </c>
@@ -2436,7 +2432,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249" s="2">
         <v>44195</v>
       </c>
@@ -2444,7 +2440,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250" s="2">
         <v>44196</v>
       </c>
@@ -2452,7 +2448,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251" s="2">
         <v>44197</v>
       </c>
@@ -2460,7 +2456,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252" s="2">
         <v>44198</v>
       </c>
@@ -2468,7 +2464,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253" s="2">
         <v>44199</v>
       </c>
@@ -2476,7 +2472,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A254" s="2">
         <v>44200</v>
       </c>
@@ -2484,7 +2480,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255" s="2">
         <v>44201</v>
       </c>
@@ -2492,7 +2488,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256" s="2">
         <v>44202</v>
       </c>
@@ -2500,7 +2496,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A257" s="2">
         <v>44203</v>
       </c>
@@ -2508,7 +2504,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258" s="2">
         <v>44204</v>
       </c>
@@ -2516,7 +2512,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259" s="2">
         <v>44205</v>
       </c>
@@ -2524,7 +2520,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260" s="2">
         <v>44206</v>
       </c>
@@ -2532,7 +2528,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261" s="2">
         <v>44207</v>
       </c>
@@ -2540,7 +2536,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262" s="2">
         <v>44208</v>
       </c>
@@ -2548,7 +2544,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A263" s="2">
         <v>44209</v>
       </c>
@@ -2556,7 +2552,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264" s="2">
         <v>44210</v>
       </c>
@@ -2564,7 +2560,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A265" s="2">
         <v>44211</v>
       </c>
@@ -2572,7 +2568,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A266" s="2">
         <v>44212</v>
       </c>
@@ -2580,7 +2576,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A267" s="2">
         <v>44213</v>
       </c>
@@ -2588,7 +2584,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A268" s="2">
         <v>44214</v>
       </c>
@@ -2596,7 +2592,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A269" s="2">
         <v>44215</v>
       </c>
@@ -2604,7 +2600,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A270" s="2">
         <v>44216</v>
       </c>
@@ -2612,7 +2608,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A271" s="2">
         <v>44217</v>
       </c>
@@ -2620,7 +2616,7 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A272" s="2">
         <v>44218</v>
       </c>
@@ -2628,7 +2624,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A273" s="2">
         <v>44219</v>
       </c>
@@ -2636,7 +2632,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A274" s="2">
         <v>44220</v>
       </c>
@@ -2644,7 +2640,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A275" s="2">
         <v>44221</v>
       </c>
@@ -2652,7 +2648,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A276" s="2">
         <v>44222</v>
       </c>
@@ -2660,7 +2656,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A277" s="2">
         <v>44223</v>
       </c>
@@ -2668,7 +2664,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A278" s="2">
         <v>44224</v>
       </c>
@@ -2676,7 +2672,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A279" s="2">
         <v>44225</v>
       </c>
@@ -2684,7 +2680,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A280" s="2">
         <v>44226</v>
       </c>
@@ -2692,7 +2688,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A281" s="2">
         <v>44227</v>
       </c>
@@ -2700,7 +2696,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A282" s="2">
         <v>44228</v>
       </c>
@@ -2708,7 +2704,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A283" s="2">
         <v>44229</v>
       </c>
@@ -2716,7 +2712,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A284" s="2">
         <v>44230</v>
       </c>
@@ -2724,7 +2720,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A285" s="2">
         <v>44231</v>
       </c>
@@ -2732,7 +2728,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A286" s="2">
         <v>44232</v>
       </c>
@@ -2740,7 +2736,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A287" s="2">
         <v>44233</v>
       </c>
@@ -2748,7 +2744,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A288" s="2">
         <v>44234</v>
       </c>
@@ -2756,7 +2752,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A289" s="2">
         <v>44235</v>
       </c>
@@ -2764,7 +2760,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A290" s="2">
         <v>44236</v>
       </c>
@@ -2772,7 +2768,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A291" s="2">
         <v>44237</v>
       </c>
@@ -2780,7 +2776,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A292" s="2">
         <v>44238</v>
       </c>
@@ -2788,7 +2784,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A293" s="2">
         <v>44239</v>
       </c>
@@ -2796,7 +2792,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A294" s="2">
         <v>44240</v>
       </c>
@@ -2804,7 +2800,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A295" s="2">
         <v>44241</v>
       </c>
@@ -2812,7 +2808,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A296" s="2">
         <v>44242</v>
       </c>
@@ -2820,7 +2816,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A297" s="2">
         <v>44243</v>
       </c>
@@ -2828,7 +2824,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A298" s="2">
         <v>44244</v>
       </c>
@@ -2836,7 +2832,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A299" s="2">
         <v>44245</v>
       </c>
@@ -2844,7 +2840,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A300" s="2">
         <v>44246</v>
       </c>
@@ -2852,7 +2848,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A301" s="2">
         <v>44247</v>
       </c>
@@ -2860,7 +2856,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A302" s="2">
         <v>44248</v>
       </c>
@@ -2868,7 +2864,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A303" s="2">
         <v>44249</v>
       </c>
@@ -2876,7 +2872,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A304" s="2">
         <v>44250</v>
       </c>
@@ -2884,7 +2880,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A305" s="2">
         <v>44251</v>
       </c>
@@ -2892,7 +2888,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A306" s="2">
         <v>44252</v>
       </c>
@@ -2900,7 +2896,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A307" s="2">
         <v>44253</v>
       </c>
@@ -2908,7 +2904,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A308" s="2">
         <v>44254</v>
       </c>
@@ -2916,7 +2912,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A309" s="2">
         <v>44255</v>
       </c>
@@ -2924,7 +2920,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A310" s="2">
         <v>44256</v>
       </c>
@@ -2932,7 +2928,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A311" s="2">
         <v>44257</v>
       </c>
@@ -2940,7 +2936,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A312" s="2">
         <v>44258</v>
       </c>
@@ -2948,7 +2944,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A313" s="2">
         <v>44259</v>
       </c>
@@ -2956,7 +2952,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A314" s="2">
         <v>44260</v>
       </c>
@@ -2964,7 +2960,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A315" s="2">
         <v>44261</v>
       </c>
@@ -2972,7 +2968,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A316" s="2">
         <v>44262</v>
       </c>
@@ -2980,7 +2976,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A317" s="2">
         <v>44263</v>
       </c>
@@ -2988,7 +2984,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A318" s="2">
         <v>44264</v>
       </c>
@@ -2996,7 +2992,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A319" s="2">
         <v>44265</v>
       </c>
@@ -3004,7 +3000,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A320" s="2">
         <v>44266</v>
       </c>
@@ -3012,7 +3008,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A321" s="2">
         <v>44267</v>
       </c>
@@ -3020,7 +3016,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A322" s="2">
         <v>44268</v>
       </c>
@@ -3028,7 +3024,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A323" s="2">
         <v>44269</v>
       </c>
@@ -3036,7 +3032,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A324" s="2">
         <v>44270</v>
       </c>
@@ -3044,7 +3040,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A325" s="2">
         <v>44271</v>
       </c>
